--- a/docs/assets/disciplinas/LOM3251.xlsx
+++ b/docs/assets/disciplinas/LOM3251.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Estudar os conceitos de propagação de ondas mecânicas e sua aplicação em análise de problemas de vibração, ondas sonoras e acústica.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,14 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Mecânica ondulatória. Vibrações. Osciladores acoplados e modos normais. Análise de Fourier.
-Ondas sonoras. Propriedades ondulatórias das ondas de som. Ressonância. Reverberação. Qualidades do som. Mecanismo de audição. Materiais absorventes acústicos. Controle do ruído. Normas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,12 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Movimentos periódicos. Superposição de movimentos periódicos. Vibrações livres de sistemas físicos. Vibrações forçadas e ressonância. Osciladores acoplados e modos normais. Modos normais de sistemas contínuos. Análise de Fourier. Ondas Progressivas.
-Definição de onda sonora: amplitude, frequência e comprimento de onda. Velocidade de propagação. Espectro sonoro. Análise harmônica por transformada rápida de Fourier (FFT).
-Propriedades ondulatórias das ondas sonoras: reflexão, refração, difração, atenuação, interferência e batimento. O fenômeno de ressonância. Reverberação. Eco. Distorção.Qualidades do som: altura, timbre e intensidade. Medida de intensidade: o decibel. Mecanismo de audição. Sensação auditiva. Acústica de ambientes. Tempos de reverberação. Inteligibilidade. Absorção do som. Materiais absorventes acústicos. Isolamento acústico. Ressonadores. 
-Ruído. Efeitos de ruído no ser humano. Controle do ruído. Normas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -110,31 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas, listas de exercícios e trabalhos práticos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>FRENCH, A. P., Vibrações e Ondas, Editora UnB, 2002.
-SOTELO Jr., J.; FRANÇA, L. N. F., Introdução às Vibrações Mecânicas, Editora Edgard Blücher, 2006.
-THOMSON, W. T.; DAHLEH, M. D., Theory of Vibration with Applications, Prentcie Hall, 1997.
-BLACKSTOCK, D. T. Fundamentals of Physical Acoustics, Wiley-Interscience, 2000.
-KINSLER, L. E. Fundamentals of Acoustics, Wiley, 1999.
-FAHY, F. J. Foundations of Engineering Acoustics, Academic Press, 2000.
-BISTAFA, S. R., Acústica Aplicada ao Controle de Ruído, Editora Edgard Blücher, 2006..</t>
   </si>
 </sst>
 </file>
@@ -490,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
